--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-0.1/percents/scores-10.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,48 +49,30 @@
     <t>terrifying</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>scary</t>
   </si>
   <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
     <t>weird</t>
   </si>
   <si>
@@ -106,45 +88,27 @@
     <t>wrong</t>
   </si>
   <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
     <t>insane</t>
   </si>
   <si>
-    <t>late</t>
-  </si>
-  <si>
     <t>fucked</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
+    <t>afraid</t>
   </si>
   <si>
     <t>0.95-negative</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
@@ -154,85 +118,61 @@
     <t>interesting</t>
   </si>
   <si>
-    <t>important</t>
+    <t>best</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>netflix</t>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>paying</t>
+  </si>
+  <si>
+    <t>irony</t>
   </si>
   <si>
     <t>social</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>decent</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>democracy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>worth</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -611,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS36"/>
+  <dimension ref="A1:BS25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,28 +559,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AK1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="AT1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="BC1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="BL1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -842,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01781055454087135</v>
+        <v>0.01806584146294386</v>
       </c>
       <c r="C3">
         <v>23</v>
@@ -863,10 +803,10 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>0.01188810918085857</v>
+        <v>0.01192920303467461</v>
       </c>
       <c r="L3">
         <v>15</v>
@@ -884,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.02108566688494692</v>
+        <v>0.02138898173781655</v>
       </c>
       <c r="U3">
         <v>23</v>
@@ -911,10 +851,10 @@
         <v>2</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AC3">
-        <v>0.128346354022625</v>
+        <v>0.1258199427836755</v>
       </c>
       <c r="AD3">
         <v>15</v>
@@ -932,13 +872,13 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.1747798082618049</v>
+        <v>0.02624587906263047</v>
       </c>
       <c r="AM3">
         <v>23</v>
@@ -959,10 +899,10 @@
         <v>2</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AU3">
-        <v>0.09410478632237093</v>
+        <v>0.1035414061512696</v>
       </c>
       <c r="AV3">
         <v>15</v>
@@ -980,13 +920,13 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.1472240513588077</v>
+        <v>0.03401691478233275</v>
       </c>
       <c r="BE3">
         <v>23</v>
@@ -1007,10 +947,10 @@
         <v>2</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="BM3">
-        <v>0.07804045819094808</v>
+        <v>0.09103847953537021</v>
       </c>
       <c r="BN3">
         <v>15</v>
@@ -1028,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1036,7 +976,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0148391174796226</v>
+        <v>0.01505186414312319</v>
       </c>
       <c r="C4">
         <v>19</v>
@@ -1057,16 +997,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="K4">
-        <v>0.009692213058253</v>
+        <v>0.01039900400071662</v>
       </c>
       <c r="L4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1078,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.01755708537471404</v>
+        <v>0.0178098836705295</v>
       </c>
       <c r="U4">
         <v>19</v>
@@ -1105,16 +1045,16 @@
         <v>2</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="AC4">
-        <v>0.1063651793297018</v>
+        <v>0.1099122413657202</v>
       </c>
       <c r="AD4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1126,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.1459064550768711</v>
+        <v>0.02184083528750795</v>
       </c>
       <c r="AM4">
         <v>19</v>
@@ -1153,16 +1093,16 @@
         <v>2</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="AU4">
-        <v>0.08092414616162769</v>
+        <v>0.09134983619190663</v>
       </c>
       <c r="AV4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX4">
         <v>1</v>
@@ -1174,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.1238197326473709</v>
+        <v>0.02829035787467347</v>
       </c>
       <c r="BE4">
         <v>19</v>
@@ -1201,16 +1141,16 @@
         <v>2</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="BM4">
-        <v>0.06898856224233993</v>
+        <v>0.08093243788912953</v>
       </c>
       <c r="BN4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BO4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -1222,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1230,7 +1170,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.00370225110881351</v>
+        <v>0.003755456679122402</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1251,10 +1191,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>0.009680167840505577</v>
+        <v>0.00970599430765823</v>
       </c>
       <c r="L5">
         <v>12</v>
@@ -1272,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.004353512103490845</v>
+        <v>0.004416801473504992</v>
       </c>
       <c r="U5">
         <v>4</v>
@@ -1299,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AC5">
-        <v>0.1058534072108365</v>
+        <v>0.1047582679840949</v>
       </c>
       <c r="AD5">
         <v>12</v>
@@ -1320,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.03804103103707878</v>
+        <v>0.005383382326833394</v>
       </c>
       <c r="AM5">
         <v>4</v>
@@ -1347,10 +1287,10 @@
         <v>1</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AU5">
-        <v>0.08035215628081609</v>
+        <v>0.08877671245784999</v>
       </c>
       <c r="AV5">
         <v>12</v>
@@ -1368,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.03652790410630099</v>
+        <v>0.006929911692158838</v>
       </c>
       <c r="BE5">
         <v>4</v>
@@ -1395,10 +1335,10 @@
         <v>1</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="BM5">
-        <v>0.06838832138027323</v>
+        <v>0.07980771151988379</v>
       </c>
       <c r="BN5">
         <v>12</v>
@@ -1416,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1424,7 +1364,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.003690205891066086</v>
+        <v>0.003749449193795684</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1442,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.009656077405010729</v>
+        <v>0.009693979337004796</v>
       </c>
       <c r="L6">
         <v>12</v>
@@ -1466,13 +1406,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.004296297319190581</v>
+        <v>0.004388265918203085</v>
       </c>
       <c r="U6">
         <v>4</v>
@@ -1490,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="AC6">
-        <v>0.1048298629731059</v>
+        <v>0.1042916217628695</v>
       </c>
       <c r="AD6">
         <v>12</v>
@@ -1514,13 +1454,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.03722173022965986</v>
+        <v>0.005321921130798519</v>
       </c>
       <c r="AM6">
         <v>4</v>
@@ -1538,13 +1478,13 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="AU6">
-        <v>0.07920817651919289</v>
+        <v>0.08818960225024584</v>
       </c>
       <c r="AV6">
         <v>12</v>
@@ -1562,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.03557917085266481</v>
+        <v>0.006815769470951213</v>
       </c>
       <c r="BE6">
         <v>4</v>
@@ -1586,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="BM6">
-        <v>0.06718783965613985</v>
+        <v>0.07915299577757136</v>
       </c>
       <c r="BN6">
         <v>12</v>
@@ -1610,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1618,7 +1558,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.003678160673318662</v>
+        <v>0.003743441708468967</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1636,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.004470086160569385</v>
+        <v>0.005223531941665177</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1666,7 +1606,7 @@
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.004239082534890319</v>
+        <v>0.00435973036290118</v>
       </c>
       <c r="U7">
         <v>4</v>
@@ -1684,19 +1624,19 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="AC7">
-        <v>0.05089629940881434</v>
+        <v>0.06123497972125754</v>
       </c>
       <c r="AD7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1714,7 +1654,7 @@
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.03640242942224094</v>
+        <v>0.005260459934763644</v>
       </c>
       <c r="AM7">
         <v>4</v>
@@ -1732,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="AU7">
-        <v>0.04549806842659872</v>
+        <v>0.05748599444819825</v>
       </c>
       <c r="AV7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX7">
         <v>1</v>
@@ -1762,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.03463043759902865</v>
+        <v>0.006701627249743589</v>
       </c>
       <c r="BE7">
         <v>4</v>
@@ -1780,19 +1720,19 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="BM7">
-        <v>0.04296550465537625</v>
+        <v>0.05538202826197365</v>
       </c>
       <c r="BN7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP7">
         <v>1</v>
@@ -1812,7 +1752,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002965414452375035</v>
+        <v>0.003007969834493951</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1833,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>0.004464063551695673</v>
+        <v>0.004476454880666335</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1854,13 +1794,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.003499974118082755</v>
+        <v>0.003550562511985137</v>
       </c>
       <c r="U8">
         <v>3</v>
@@ -1881,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="AC8">
-        <v>0.05064041334938168</v>
+        <v>0.05398109834411797</v>
       </c>
       <c r="AD8">
         <v>5</v>
@@ -1902,13 +1842,13 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.0312323431445548</v>
+        <v>0.00434358257908764</v>
       </c>
       <c r="AM8">
         <v>3</v>
@@ -1929,10 +1869,10 @@
         <v>0</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="AU8">
-        <v>0.04521207348619292</v>
+        <v>0.05227087477992295</v>
       </c>
       <c r="AV8">
         <v>5</v>
@@ -1950,13 +1890,13 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.03115119105525987</v>
+        <v>0.005612414686451645</v>
       </c>
       <c r="BE8">
         <v>3</v>
@@ -1977,10 +1917,10 @@
         <v>0</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="BM8">
-        <v>0.04266538422434291</v>
+        <v>0.05131108105232196</v>
       </c>
       <c r="BN8">
         <v>5</v>
@@ -1998,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2006,13 +1946,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.002947346625753899</v>
+        <v>0.002254475504538785</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2024,13 +1964,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>0.003724068032328869</v>
+        <v>0.003729377819667493</v>
       </c>
       <c r="L9">
         <v>4</v>
@@ -2054,13 +1994,13 @@
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.00341415194163236</v>
+        <v>0.002655787995163376</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -2072,13 +2012,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AC9">
-        <v>0.04297217370583041</v>
+        <v>0.0467272169669784</v>
       </c>
       <c r="AD9">
         <v>4</v>
@@ -2102,13 +2042,13 @@
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.03000339193342641</v>
+        <v>0.003242321635307011</v>
       </c>
       <c r="AM9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -2120,13 +2060,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AU9">
-        <v>0.04043720017873745</v>
+        <v>0.04705575511164766</v>
       </c>
       <c r="AV9">
         <v>4</v>
@@ -2150,13 +2090,13 @@
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.02972809117480562</v>
+        <v>0.004180775459536828</v>
       </c>
       <c r="BE9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG9">
         <v>0</v>
@@ -2168,13 +2108,13 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="BM9">
-        <v>0.03924792500009573</v>
+        <v>0.04724013384267027</v>
       </c>
       <c r="BN9">
         <v>4</v>
@@ -2200,7 +2140,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.002222555187062848</v>
+        <v>0.002254475504538785</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2221,16 +2161,16 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>0.002219986558100413</v>
+        <v>0.002904203449421329</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2242,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.002617828740524534</v>
+        <v>0.002655787995163376</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -2269,16 +2209,16 @@
         <v>0</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AC10">
-        <v>0.02661215018099722</v>
+        <v>0.03644013515187364</v>
       </c>
       <c r="AD10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -2290,13 +2230,13 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.02401400484832135</v>
+        <v>0.003242321635307011</v>
       </c>
       <c r="AM10">
         <v>2</v>
@@ -2317,16 +2257,16 @@
         <v>0</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AU10">
-        <v>0.02974347380220328</v>
+        <v>0.03802441909394542</v>
       </c>
       <c r="AV10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX10">
         <v>1</v>
@@ -2338,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="BC10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.02530011137740067</v>
+        <v>0.004180775459536828</v>
       </c>
       <c r="BE10">
         <v>2</v>
@@ -2365,16 +2305,16 @@
         <v>0</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="BM10">
-        <v>0.03121252482746798</v>
+        <v>0.03891353430798776</v>
       </c>
       <c r="BN10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP10">
         <v>1</v>
@@ -2386,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -2394,7 +2334,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.002222555187062848</v>
+        <v>0.002254475504538785</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2415,10 +2355,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>0.001810449154688002</v>
+        <v>0.002223208727016375</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -2436,13 +2376,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.002617828740524534</v>
+        <v>0.002655787995163376</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -2463,16 +2403,16 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AC11">
-        <v>0.01919979659687862</v>
+        <v>0.03175280799147385</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -2484,13 +2424,13 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.02401400484832135</v>
+        <v>0.003242321635307011</v>
       </c>
       <c r="AM11">
         <v>2</v>
@@ -2511,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AU11">
-        <v>0.02525459543515361</v>
+        <v>0.03603840556749293</v>
       </c>
       <c r="AV11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX11">
         <v>1</v>
@@ -2532,13 +2472,13 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.02530011137740067</v>
+        <v>0.004180775459536828</v>
       </c>
       <c r="BE11">
         <v>2</v>
@@ -2559,16 +2499,16 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="BM11">
-        <v>0.02809518603425415</v>
+        <v>0.03844352368105446</v>
       </c>
       <c r="BN11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP11">
         <v>1</v>
@@ -2580,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2588,7 +2528,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.002222555187062848</v>
+        <v>0.00224246053388535</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2606,13 +2546,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>0.001593635235234373</v>
+        <v>0.002223208727016375</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -2630,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.002617828740524534</v>
+        <v>0.002598716884559564</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2654,19 +2594,19 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="AC12">
-        <v>0.01919979659687862</v>
+        <v>0.03175280799147385</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -2678,13 +2618,13 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.02401400484832135</v>
+        <v>0.003119399243237262</v>
       </c>
       <c r="AM12">
         <v>2</v>
@@ -2702,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="AU12">
-        <v>0.02525459543515361</v>
+        <v>0.03603840556749293</v>
       </c>
       <c r="AV12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX12">
         <v>1</v>
@@ -2726,13 +2666,13 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.02530011137740067</v>
+        <v>0.003952491017121578</v>
       </c>
       <c r="BE12">
         <v>2</v>
@@ -2750,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="BM12">
-        <v>0.02809518603425415</v>
+        <v>0.03844352368105446</v>
       </c>
       <c r="BN12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP12">
         <v>1</v>
@@ -2774,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2782,7 +2722,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.002222555187062848</v>
+        <v>0.002212423107251765</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2800,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>0.001486013647607321</v>
+        <v>0.002048991652541579</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2824,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002617828740524534</v>
+        <v>0.002456039108050033</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -2848,19 +2788,19 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AC13">
-        <v>0.01919979659687862</v>
+        <v>0.02498643778370533</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -2872,13 +2812,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.02401400484832135</v>
+        <v>0.002812093263062888</v>
       </c>
       <c r="AM13">
         <v>2</v>
@@ -2896,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AU13">
-        <v>0.02525459543515361</v>
+        <v>0.03141039610682179</v>
       </c>
       <c r="AV13">
         <v>1</v>
@@ -2926,7 +2866,7 @@
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.02530011137740067</v>
+        <v>0.003381779911083455</v>
       </c>
       <c r="BE13">
         <v>2</v>
@@ -2944,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="BM13">
-        <v>0.02809518603425415</v>
+        <v>0.0350272922137152</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -2976,13 +2916,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.002222555187062848</v>
+        <v>0.001500981174583617</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2997,16 +2937,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.001486013647607321</v>
+        <v>0.002006939255254559</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3018,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002617828740524534</v>
+        <v>0.001761013478341616</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -3045,10 +2985,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="AC14">
-        <v>0.01919979659687862</v>
+        <v>0.0249655728355597</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -3072,13 +3012,13 @@
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.02401400484832135</v>
+        <v>0.002141060691526383</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3093,10 +3033,10 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AU14">
-        <v>0.02525459543515361</v>
+        <v>0.03141039610682179</v>
       </c>
       <c r="AV14">
         <v>1</v>
@@ -3120,13 +3060,13 @@
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.02530011137740067</v>
+        <v>0.00274913623262201</v>
       </c>
       <c r="BE14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG14">
         <v>0</v>
@@ -3141,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="BM14">
-        <v>0.02809518603425415</v>
+        <v>0.0350272922137152</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3170,13 +3110,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002222555187062848</v>
+        <v>0.001500981174583617</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3191,10 +3131,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>0.001486013647607321</v>
+        <v>0.001488146636670967</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3218,13 +3158,13 @@
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.002617828740524534</v>
+        <v>0.001761013478341616</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -3239,10 +3179,10 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AC15">
-        <v>0.01919979659687862</v>
+        <v>0.0249655728355597</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3266,13 +3206,13 @@
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.02401400484832135</v>
+        <v>0.002141060691526383</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -3287,10 +3227,10 @@
         <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AU15">
-        <v>0.02525459543515361</v>
+        <v>0.03141039610682179</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3314,13 +3254,13 @@
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.02530011137740067</v>
+        <v>0.00274913623262201</v>
       </c>
       <c r="BE15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG15">
         <v>0</v>
@@ -3335,10 +3275,10 @@
         <v>0</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="BM15">
-        <v>0.02809518603425415</v>
+        <v>0.0350272922137152</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3364,13 +3304,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.002222555187062848</v>
+        <v>0.001500981174583617</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3385,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>0.001486013647607321</v>
+        <v>0.001488146636670967</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3412,13 +3352,13 @@
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.002617828740524534</v>
+        <v>0.001761013478341616</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3433,10 +3373,10 @@
         <v>0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="AC16">
-        <v>0.01919979659687862</v>
+        <v>0.0249655728355597</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3460,13 +3400,13 @@
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.02401400484832135</v>
+        <v>0.002141060691526383</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -3481,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AU16">
-        <v>0.02525459543515361</v>
+        <v>0.03111684100301971</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3502,19 +3442,19 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.02530011137740067</v>
+        <v>0.00274913623262201</v>
       </c>
       <c r="BE16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG16">
         <v>0</v>
@@ -3529,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="BM16">
-        <v>0.02809518603425415</v>
+        <v>0.03469993434255898</v>
       </c>
       <c r="BN16">
         <v>1</v>
@@ -3550,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3558,13 +3498,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.002222555187062848</v>
+        <v>0.001500981174583617</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3579,10 +3519,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>0.001486013647607321</v>
+        <v>0.001488146636670967</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3606,13 +3546,13 @@
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.002617828740524534</v>
+        <v>0.001761013478341616</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -3627,10 +3567,10 @@
         <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AC17">
-        <v>0.01919979659687862</v>
+        <v>0.02473224972494699</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3648,19 +3588,19 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.02401400484832135</v>
+        <v>0.002141060691526383</v>
       </c>
       <c r="AM17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -3675,10 +3615,10 @@
         <v>0</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="AU17">
-        <v>0.02525459543515361</v>
+        <v>0.03082328589921764</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3696,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.02530011137740067</v>
+        <v>0.00274913623262201</v>
       </c>
       <c r="BE17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG17">
         <v>0</v>
@@ -3723,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="BM17">
-        <v>0.02809518603425415</v>
+        <v>0.03437257647140277</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -3744,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3752,13 +3692,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.002222555187062848</v>
+        <v>0.001500981174583617</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3773,10 +3713,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>0.001486013647607321</v>
+        <v>0.00148213915134425</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3794,19 +3734,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.002617828740524534</v>
+        <v>0.001761013478341616</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -3821,10 +3761,10 @@
         <v>0</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AC18">
-        <v>0.01919979659687862</v>
+        <v>0.02449892661433428</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3842,19 +3782,19 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.02401400484832135</v>
+        <v>0.002141060691526383</v>
       </c>
       <c r="AM18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -3869,10 +3809,10 @@
         <v>0</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="AU18">
-        <v>0.02525459543515361</v>
+        <v>0.03082328589921764</v>
       </c>
       <c r="AV18">
         <v>1</v>
@@ -3890,19 +3830,19 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.02530011137740067</v>
+        <v>0.00274913623262201</v>
       </c>
       <c r="BE18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG18">
         <v>0</v>
@@ -3917,10 +3857,10 @@
         <v>0</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="BM18">
-        <v>0.02809518603425415</v>
+        <v>0.03437257647140277</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -3938,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3946,13 +3886,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.002210509969315425</v>
+        <v>0.001500981174583617</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3964,13 +3904,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>0.001486013647607321</v>
+        <v>0.001476131666017533</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3988,19 +3928,19 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.00256061395622427</v>
+        <v>0.001761013478341616</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -4012,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="AC19">
-        <v>0.01919979659687862</v>
+        <v>0.02449892661433428</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4036,19 +3976,19 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.02319470404090242</v>
+        <v>0.002141060691526383</v>
       </c>
       <c r="AM19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -4060,13 +4000,13 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="AU19">
-        <v>0.02525459543515361</v>
+        <v>0.03052973079541556</v>
       </c>
       <c r="AV19">
         <v>1</v>
@@ -4084,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.0243513781237645</v>
+        <v>0.00274913623262201</v>
       </c>
       <c r="BE19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG19">
         <v>0</v>
@@ -4108,13 +4048,13 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="BM19">
-        <v>0.02809518603425415</v>
+        <v>0.03404521860024655</v>
       </c>
       <c r="BN19">
         <v>1</v>
@@ -4132,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4140,7 +4080,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001479695921750662</v>
+        <v>0.001500981174583617</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4161,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>0.001486013647607321</v>
+        <v>0.001476131666017533</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4182,13 +4122,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.001735683362966312</v>
+        <v>0.001761013478341616</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4209,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="AC20">
-        <v>0.01919979659687862</v>
+        <v>0.02426560350372158</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4230,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.0167956665520879</v>
+        <v>0.002141060691526383</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -4257,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AU20">
-        <v>0.02525459543515361</v>
+        <v>0.03052973079541556</v>
       </c>
       <c r="AV20">
         <v>1</v>
@@ -4278,13 +4218,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.01944903169954147</v>
+        <v>0.00274913623262201</v>
       </c>
       <c r="BE20">
         <v>1</v>
@@ -4305,10 +4245,10 @@
         <v>0</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="BM20">
-        <v>0.02809518603425415</v>
+        <v>0.03404521860024655</v>
       </c>
       <c r="BN20">
         <v>1</v>
@@ -4326,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4334,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001479695921750662</v>
+        <v>0.0014949736892569</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4352,13 +4292,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>0.001486013647607321</v>
+        <v>0.001470124180690816</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4376,13 +4316,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.001735683362966312</v>
+        <v>0.001732477923039709</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4400,13 +4340,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="AC21">
-        <v>0.01919979659687862</v>
+        <v>0.02426560350372158</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4424,13 +4364,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.0167956665520879</v>
+        <v>0.002079599495491508</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4448,13 +4388,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="AU21">
-        <v>0.02525459543515361</v>
+        <v>0.0302361756916135</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4472,13 +4412,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.01944903169954147</v>
+        <v>0.002634994011414385</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4496,13 +4436,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="BM21">
-        <v>0.02809518603425415</v>
+        <v>0.03371786072909033</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4520,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4528,7 +4468,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001479695921750662</v>
+        <v>0.0014949736892569</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4546,13 +4486,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>0.001486013647607321</v>
+        <v>0.001470124180690816</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4570,13 +4510,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.001735683362966312</v>
+        <v>0.001732477923039709</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4594,13 +4534,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="AC22">
-        <v>0.01894391053744596</v>
+        <v>0.02403228039310886</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4618,13 +4558,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.0167956665520879</v>
+        <v>0.002079599495491508</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4642,13 +4582,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="AU22">
-        <v>0.02496860049474781</v>
+        <v>0.02994262058781142</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4666,13 +4606,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.01944903169954147</v>
+        <v>0.002634994011414385</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4690,13 +4630,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="BM22">
-        <v>0.02779506560322081</v>
+        <v>0.03339050285793412</v>
       </c>
       <c r="BN22">
         <v>1</v>
@@ -4714,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4722,7 +4662,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001479695921750662</v>
+        <v>0.0014949736892569</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4740,13 +4680,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K23">
-        <v>0.001486013647607321</v>
+        <v>0.001464116695364099</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4764,13 +4704,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.001735683362966312</v>
+        <v>0.001732477923039709</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4788,13 +4728,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AC23">
-        <v>0.01894391053744596</v>
+        <v>0.02379895728249616</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4812,13 +4752,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.0167956665520879</v>
+        <v>0.002079599495491508</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4836,19 +4776,19 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AU23">
-        <v>0.02496860049474781</v>
+        <v>0.02752530755723282</v>
       </c>
       <c r="AV23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX23">
         <v>1</v>
@@ -4860,13 +4800,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="BC23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.01944903169954147</v>
+        <v>0.002634994011414385</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4884,19 +4824,19 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="BM23">
-        <v>0.02779506560322081</v>
+        <v>0.02895014541752417</v>
       </c>
       <c r="BN23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP23">
         <v>1</v>
@@ -4908,39 +4848,15 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:71">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.001479695921750662</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>0.001479991038733609</v>
+        <v>0.001458109210037382</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -4958,43 +4874,19 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T24">
-        <v>0.001735683362966312</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Y24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="AC24">
-        <v>0.01894391053744596</v>
+        <v>0.02335317600941638</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF24">
         <v>1</v>
@@ -5006,43 +4898,19 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL24">
-        <v>0.0167956665520879</v>
-      </c>
-      <c r="AM24">
-        <v>1</v>
-      </c>
-      <c r="AN24">
-        <v>1</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>1</v>
-      </c>
-      <c r="AQ24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="AU24">
-        <v>0.02496860049474781</v>
+        <v>0.02547042183061831</v>
       </c>
       <c r="AV24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX24">
         <v>1</v>
@@ -5054,43 +4922,19 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>1</v>
-      </c>
-      <c r="BC24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BD24">
-        <v>0.01944903169954147</v>
-      </c>
-      <c r="BE24">
-        <v>1</v>
-      </c>
-      <c r="BF24">
-        <v>1</v>
-      </c>
-      <c r="BG24">
-        <v>0</v>
-      </c>
-      <c r="BH24">
-        <v>1</v>
-      </c>
-      <c r="BI24" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ24">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="BM24">
-        <v>0.02779506560322081</v>
+        <v>0.02665864031943065</v>
       </c>
       <c r="BN24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP24">
         <v>1</v>
@@ -5102,39 +4946,15 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:71">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.001479695921750662</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>0.001479991038733609</v>
+        <v>0.0008453457067122379</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5152,37 +4972,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T25">
-        <v>0.001735683362966312</v>
-      </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="AC25">
-        <v>0.01868802447801329</v>
+        <v>0</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5200,37 +4996,13 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>2</v>
-      </c>
-      <c r="AK25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL25">
-        <v>0.0167956665520879</v>
-      </c>
-      <c r="AM25">
-        <v>1</v>
-      </c>
-      <c r="AN25">
-        <v>1</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>1</v>
-      </c>
-      <c r="AQ25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="AU25">
-        <v>0.024682605554342</v>
+        <v>0</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5248,37 +5020,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>2</v>
-      </c>
-      <c r="BC25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD25">
-        <v>0.01944903169954147</v>
-      </c>
-      <c r="BE25">
-        <v>1</v>
-      </c>
-      <c r="BF25">
-        <v>1</v>
-      </c>
-      <c r="BG25">
-        <v>0</v>
-      </c>
-      <c r="BH25">
-        <v>1</v>
-      </c>
-      <c r="BI25" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ25">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="BM25">
-        <v>0.02749494517218746</v>
+        <v>0</v>
       </c>
       <c r="BN25">
         <v>1</v>
@@ -5296,1757 +5044,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:71">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.001479695921750662</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K26">
-        <v>0.001479991038733609</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T26">
-        <v>0.001735683362966312</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC26">
-        <v>0.01868802447801329</v>
-      </c>
-      <c r="AD26">
-        <v>1</v>
-      </c>
-      <c r="AE26">
-        <v>1</v>
-      </c>
-      <c r="AF26">
-        <v>1</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>2</v>
-      </c>
-      <c r="AK26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL26">
-        <v>0.0167956665520879</v>
-      </c>
-      <c r="AM26">
-        <v>1</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>1</v>
-      </c>
-      <c r="AQ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU26">
-        <v>0.024682605554342</v>
-      </c>
-      <c r="AV26">
-        <v>1</v>
-      </c>
-      <c r="AW26">
-        <v>1</v>
-      </c>
-      <c r="AX26">
-        <v>1</v>
-      </c>
-      <c r="AY26">
-        <v>0</v>
-      </c>
-      <c r="AZ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA26">
-        <v>2</v>
-      </c>
-      <c r="BC26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD26">
-        <v>0.01944903169954147</v>
-      </c>
-      <c r="BE26">
-        <v>1</v>
-      </c>
-      <c r="BF26">
-        <v>1</v>
-      </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
-      <c r="BH26">
-        <v>1</v>
-      </c>
-      <c r="BI26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ26">
-        <v>0</v>
-      </c>
-      <c r="BL26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BM26">
-        <v>0.02749494517218746</v>
-      </c>
-      <c r="BN26">
-        <v>1</v>
-      </c>
-      <c r="BO26">
-        <v>1</v>
-      </c>
-      <c r="BP26">
-        <v>1</v>
-      </c>
-      <c r="BQ26">
-        <v>0</v>
-      </c>
-      <c r="BR26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:71">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.001479695921750662</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K27">
-        <v>0.001473968429859897</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>2</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T27">
-        <v>0.001735683362966312</v>
-      </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC27">
-        <v>0.01843213841858063</v>
-      </c>
-      <c r="AD27">
-        <v>1</v>
-      </c>
-      <c r="AE27">
-        <v>1</v>
-      </c>
-      <c r="AF27">
-        <v>1</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>3</v>
-      </c>
-      <c r="AK27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL27">
-        <v>0.0167956665520879</v>
-      </c>
-      <c r="AM27">
-        <v>1</v>
-      </c>
-      <c r="AN27">
-        <v>1</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>1</v>
-      </c>
-      <c r="AQ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU27">
-        <v>0.0243966106139362</v>
-      </c>
-      <c r="AV27">
-        <v>1</v>
-      </c>
-      <c r="AW27">
-        <v>1</v>
-      </c>
-      <c r="AX27">
-        <v>1</v>
-      </c>
-      <c r="AY27">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA27">
-        <v>3</v>
-      </c>
-      <c r="BC27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD27">
-        <v>0.01944903169954147</v>
-      </c>
-      <c r="BE27">
-        <v>1</v>
-      </c>
-      <c r="BF27">
-        <v>1</v>
-      </c>
-      <c r="BG27">
-        <v>0</v>
-      </c>
-      <c r="BH27">
-        <v>1</v>
-      </c>
-      <c r="BI27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ27">
-        <v>0</v>
-      </c>
-      <c r="BL27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BM27">
-        <v>0.02719482474115412</v>
-      </c>
-      <c r="BN27">
-        <v>1</v>
-      </c>
-      <c r="BO27">
-        <v>1</v>
-      </c>
-      <c r="BP27">
-        <v>1</v>
-      </c>
-      <c r="BQ27">
-        <v>0</v>
-      </c>
-      <c r="BR27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:71">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.001479695921750662</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K28">
-        <v>0.001473968429859897</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>2</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T28">
-        <v>0.001735683362966312</v>
-      </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC28">
-        <v>0.01817625235914796</v>
-      </c>
-      <c r="AD28">
-        <v>1</v>
-      </c>
-      <c r="AE28">
-        <v>1</v>
-      </c>
-      <c r="AF28">
-        <v>1</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>4</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL28">
-        <v>0.0167956665520879</v>
-      </c>
-      <c r="AM28">
-        <v>1</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>1</v>
-      </c>
-      <c r="AQ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU28">
-        <v>0.0241106156735304</v>
-      </c>
-      <c r="AV28">
-        <v>1</v>
-      </c>
-      <c r="AW28">
-        <v>1</v>
-      </c>
-      <c r="AX28">
-        <v>1</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>4</v>
-      </c>
-      <c r="BC28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD28">
-        <v>0.01944903169954147</v>
-      </c>
-      <c r="BE28">
-        <v>1</v>
-      </c>
-      <c r="BF28">
-        <v>1</v>
-      </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
-      <c r="BH28">
-        <v>1</v>
-      </c>
-      <c r="BI28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ28">
-        <v>0</v>
-      </c>
-      <c r="BL28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM28">
-        <v>0.02689470431012077</v>
-      </c>
-      <c r="BN28">
-        <v>1</v>
-      </c>
-      <c r="BO28">
-        <v>1</v>
-      </c>
-      <c r="BP28">
-        <v>1</v>
-      </c>
-      <c r="BQ28">
-        <v>0</v>
-      </c>
-      <c r="BR28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:71">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.001479695921750662</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29">
-        <v>0.001467945820986185</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>3</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T29">
-        <v>0.001735683362966312</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC29">
-        <v>0.01689682206198464</v>
-      </c>
-      <c r="AD29">
-        <v>1</v>
-      </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>9</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL29">
-        <v>0.0167956665520879</v>
-      </c>
-      <c r="AM29">
-        <v>1</v>
-      </c>
-      <c r="AN29">
-        <v>1</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>1</v>
-      </c>
-      <c r="AQ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AT29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU29">
-        <v>0.0226806409715014</v>
-      </c>
-      <c r="AV29">
-        <v>1</v>
-      </c>
-      <c r="AW29">
-        <v>1</v>
-      </c>
-      <c r="AX29">
-        <v>1</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <v>9</v>
-      </c>
-      <c r="BC29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD29">
-        <v>0.01944903169954147</v>
-      </c>
-      <c r="BE29">
-        <v>1</v>
-      </c>
-      <c r="BF29">
-        <v>1</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <v>1</v>
-      </c>
-      <c r="BI29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ29">
-        <v>0</v>
-      </c>
-      <c r="BL29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM29">
-        <v>0.02539410215495404</v>
-      </c>
-      <c r="BN29">
-        <v>1</v>
-      </c>
-      <c r="BO29">
-        <v>1</v>
-      </c>
-      <c r="BP29">
-        <v>1</v>
-      </c>
-      <c r="BQ29">
-        <v>0</v>
-      </c>
-      <c r="BR29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:71">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.001479695921750662</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K30">
-        <v>0.001461923212112473</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>4</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T30">
-        <v>0.001735683362966312</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>1</v>
-      </c>
-      <c r="Y30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC30">
-        <v>0.01536150570538864</v>
-      </c>
-      <c r="AD30">
-        <v>1</v>
-      </c>
-      <c r="AE30">
-        <v>1</v>
-      </c>
-      <c r="AF30">
-        <v>1</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>15</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL30">
-        <v>0.0167956665520879</v>
-      </c>
-      <c r="AM30">
-        <v>1</v>
-      </c>
-      <c r="AN30">
-        <v>1</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>1</v>
-      </c>
-      <c r="AQ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>0</v>
-      </c>
-      <c r="AT30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU30">
-        <v>0.02096467132906659</v>
-      </c>
-      <c r="AV30">
-        <v>1</v>
-      </c>
-      <c r="AW30">
-        <v>1</v>
-      </c>
-      <c r="AX30">
-        <v>1</v>
-      </c>
-      <c r="AY30">
-        <v>0</v>
-      </c>
-      <c r="AZ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA30">
-        <v>15</v>
-      </c>
-      <c r="BC30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD30">
-        <v>0.01944903169954147</v>
-      </c>
-      <c r="BE30">
-        <v>1</v>
-      </c>
-      <c r="BF30">
-        <v>1</v>
-      </c>
-      <c r="BG30">
-        <v>0</v>
-      </c>
-      <c r="BH30">
-        <v>1</v>
-      </c>
-      <c r="BI30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ30">
-        <v>0</v>
-      </c>
-      <c r="BL30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BM30">
-        <v>0.02359337956875396</v>
-      </c>
-      <c r="BN30">
-        <v>1</v>
-      </c>
-      <c r="BO30">
-        <v>1</v>
-      </c>
-      <c r="BP30">
-        <v>1</v>
-      </c>
-      <c r="BQ30">
-        <v>0</v>
-      </c>
-      <c r="BR30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:71">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.001479695921750662</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K31">
-        <v>0.001431810167743913</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>9</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T31">
-        <v>0.001735683362966312</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>1</v>
-      </c>
-      <c r="Y31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC31">
-        <v>0.00921189813957596</v>
-      </c>
-      <c r="AD31">
-        <v>2</v>
-      </c>
-      <c r="AE31">
-        <v>2</v>
-      </c>
-      <c r="AF31">
-        <v>1</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>70</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL31">
-        <v>0.0167956665520879</v>
-      </c>
-      <c r="AM31">
-        <v>1</v>
-      </c>
-      <c r="AN31">
-        <v>1</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>1</v>
-      </c>
-      <c r="AQ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>0</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU31">
-        <v>0.01029581785460883</v>
-      </c>
-      <c r="AV31">
-        <v>2</v>
-      </c>
-      <c r="AW31">
-        <v>2</v>
-      </c>
-      <c r="AX31">
-        <v>1</v>
-      </c>
-      <c r="AY31">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA31">
-        <v>70</v>
-      </c>
-      <c r="BC31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD31">
-        <v>0.01944903169954147</v>
-      </c>
-      <c r="BE31">
-        <v>1</v>
-      </c>
-      <c r="BF31">
-        <v>1</v>
-      </c>
-      <c r="BG31">
-        <v>0</v>
-      </c>
-      <c r="BH31">
-        <v>1</v>
-      </c>
-      <c r="BI31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ31">
-        <v>0</v>
-      </c>
-      <c r="BL31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BM31">
-        <v>0.01080433551720046</v>
-      </c>
-      <c r="BN31">
-        <v>2</v>
-      </c>
-      <c r="BO31">
-        <v>2</v>
-      </c>
-      <c r="BP31">
-        <v>1</v>
-      </c>
-      <c r="BQ31">
-        <v>0</v>
-      </c>
-      <c r="BR31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS31">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:71">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.001473673312876949</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K32">
-        <v>0.001395674514501642</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>15</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T32">
-        <v>0.00170707597081618</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>1</v>
-      </c>
-      <c r="Y32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>2</v>
-      </c>
-      <c r="AE32">
-        <v>2</v>
-      </c>
-      <c r="AF32">
-        <v>1</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>106</v>
-      </c>
-      <c r="AK32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL32">
-        <v>0.01638601614837843</v>
-      </c>
-      <c r="AM32">
-        <v>1</v>
-      </c>
-      <c r="AN32">
-        <v>1</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>1</v>
-      </c>
-      <c r="AQ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>1</v>
-      </c>
-      <c r="AT32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
-      <c r="AV32">
-        <v>2</v>
-      </c>
-      <c r="AW32">
-        <v>2</v>
-      </c>
-      <c r="AX32">
-        <v>1</v>
-      </c>
-      <c r="AY32">
-        <v>0</v>
-      </c>
-      <c r="AZ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA32">
-        <v>106</v>
-      </c>
-      <c r="BC32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BD32">
-        <v>0.01897466507272339</v>
-      </c>
-      <c r="BE32">
-        <v>1</v>
-      </c>
-      <c r="BF32">
-        <v>1</v>
-      </c>
-      <c r="BG32">
-        <v>0</v>
-      </c>
-      <c r="BH32">
-        <v>1</v>
-      </c>
-      <c r="BI32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ32">
-        <v>1</v>
-      </c>
-      <c r="BL32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BM32">
-        <v>0</v>
-      </c>
-      <c r="BN32">
-        <v>2</v>
-      </c>
-      <c r="BO32">
-        <v>2</v>
-      </c>
-      <c r="BP32">
-        <v>1</v>
-      </c>
-      <c r="BQ32">
-        <v>0</v>
-      </c>
-      <c r="BR32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS32">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:62">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.001473673312876949</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T33">
-        <v>0.00170707597081618</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>1</v>
-      </c>
-      <c r="Y33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>1</v>
-      </c>
-      <c r="AK33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL33">
-        <v>0.01638601614837843</v>
-      </c>
-      <c r="AM33">
-        <v>1</v>
-      </c>
-      <c r="AN33">
-        <v>1</v>
-      </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
-      <c r="AP33">
-        <v>1</v>
-      </c>
-      <c r="AQ33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>1</v>
-      </c>
-      <c r="BC33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BD33">
-        <v>0.01897466507272339</v>
-      </c>
-      <c r="BE33">
-        <v>1</v>
-      </c>
-      <c r="BF33">
-        <v>1</v>
-      </c>
-      <c r="BG33">
-        <v>0</v>
-      </c>
-      <c r="BH33">
-        <v>1</v>
-      </c>
-      <c r="BI33" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:62">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.001473673312876949</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T34">
-        <v>0.00170707597081618</v>
-      </c>
-      <c r="U34">
-        <v>1</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>1</v>
-      </c>
-      <c r="Y34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>1</v>
-      </c>
-      <c r="AK34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL34">
-        <v>0.01638601614837843</v>
-      </c>
-      <c r="AM34">
-        <v>1</v>
-      </c>
-      <c r="AN34">
-        <v>1</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>1</v>
-      </c>
-      <c r="AQ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>1</v>
-      </c>
-      <c r="BC34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD34">
-        <v>0.01897466507272339</v>
-      </c>
-      <c r="BE34">
-        <v>1</v>
-      </c>
-      <c r="BF34">
-        <v>1</v>
-      </c>
-      <c r="BG34">
-        <v>0</v>
-      </c>
-      <c r="BH34">
-        <v>1</v>
-      </c>
-      <c r="BI34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:62">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.001473673312876949</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T35">
-        <v>0.00170707597081618</v>
-      </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
-      <c r="V35">
-        <v>1</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>1</v>
-      </c>
-      <c r="Y35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>1</v>
-      </c>
-      <c r="AK35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL35">
-        <v>0.01638601614837843</v>
-      </c>
-      <c r="AM35">
-        <v>1</v>
-      </c>
-      <c r="AN35">
-        <v>1</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>1</v>
-      </c>
-      <c r="AQ35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>1</v>
-      </c>
-      <c r="BC35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD35">
-        <v>0.01897466507272339</v>
-      </c>
-      <c r="BE35">
-        <v>1</v>
-      </c>
-      <c r="BF35">
-        <v>1</v>
-      </c>
-      <c r="BG35">
-        <v>0</v>
-      </c>
-      <c r="BH35">
-        <v>1</v>
-      </c>
-      <c r="BI35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:62">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.001232768957928473</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>41</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T36">
-        <v>0.0005627802848109166</v>
-      </c>
-      <c r="U36">
-        <v>1</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>1</v>
-      </c>
-      <c r="Y36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>41</v>
-      </c>
-      <c r="AK36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL36">
-        <v>0</v>
-      </c>
-      <c r="AM36">
-        <v>1</v>
-      </c>
-      <c r="AN36">
-        <v>1</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>1</v>
-      </c>
-      <c r="AQ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>41</v>
-      </c>
-      <c r="BC36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD36">
-        <v>0</v>
-      </c>
-      <c r="BE36">
-        <v>1</v>
-      </c>
-      <c r="BF36">
-        <v>1</v>
-      </c>
-      <c r="BG36">
-        <v>0</v>
-      </c>
-      <c r="BH36">
-        <v>1</v>
-      </c>
-      <c r="BI36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ36">
-        <v>41</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
